--- a/new_data/GSPC/GSPC_2018/GSPC_2018.xlsx
+++ b/new_data/GSPC/GSPC_2018/GSPC_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\new_data\GSPC\GSPC_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F80A120-E39B-4968-9755-428959371D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9749130-1ED9-4C21-932D-B1F75363EB31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>Volume</t>
   </si>
@@ -141,6 +141,14 @@
   </si>
   <si>
     <t>PSY_24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bias_6_L1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bias_24_L1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -607,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1020,6 +1028,16 @@
         <v>24</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/new_data/GSPC/GSPC_2018/GSPC_2018.xlsx
+++ b/new_data/GSPC/GSPC_2018/GSPC_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\new_data\GSPC\GSPC_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9749130-1ED9-4C21-932D-B1F75363EB31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C6FC61-BFBB-4FFE-AFB9-AD4A5426DAB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Volume</t>
   </si>
@@ -144,11 +144,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bias_6_L1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bias_24_L1</t>
+    <t>RDP_L1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDP_L2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDP_L3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIAS_6_L1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIAS_24_L1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -615,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -628,7 +640,8 @@
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="10"/>
+    <col min="7" max="7" width="9.140625" style="10"/>
+    <col min="8" max="8" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1029,13 +1042,28 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H26" s="10" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
